--- a/FlimonTD.xlsx
+++ b/FlimonTD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49151\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49151\FlimonUnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F31A703-12F6-4638-BB27-FB7C14B45D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D33448-5B30-4339-BE87-98AB8DBC769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{943C89F2-2189-41CC-BB7B-1A98C8DC0940}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>Spiel:</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Meeting</t>
-  </si>
-  <si>
-    <t>Selbständig</t>
   </si>
   <si>
     <t>Node-Grid auf 1 geändert</t>
@@ -379,6 +376,18 @@
   </si>
   <si>
     <t>16.12.2021</t>
+  </si>
+  <si>
+    <t>14.12.2021</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Tiles und Prefabs eingefügt</t>
+  </si>
+  <si>
+    <t>noch zu bearbeiten -&gt; Navmesh, bzw Box-Collider</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -484,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -497,6 +512,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -951,14 +967,14 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1006,24 +1022,24 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1031,19 +1047,19 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1051,22 +1067,22 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,29 +1093,29 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>70</v>
+      <c r="A34" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1109,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB7469-0A03-4149-B018-64A969D158B3}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="O130" sqref="O130"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,23 +1263,23 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
+      <c r="B22" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,12 +1297,12 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>26</v>
@@ -1299,17 +1315,17 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>26</v>
@@ -1322,17 +1338,17 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>26</v>
@@ -1343,22 +1359,22 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>26</v>
@@ -1369,17 +1385,17 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>26</v>
@@ -1390,22 +1406,22 @@
         <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>26</v>
@@ -1413,20 +1429,20 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
         <v>80</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>26</v>
@@ -1437,29 +1453,50 @@
         <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>87</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>87</v>
-      </c>
-      <c r="B151" s="4" t="s">
+      <c r="B156" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1488,80 +1525,80 @@
         <v>24</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/FlimonTD.xlsx
+++ b/FlimonTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49151\FlimonUnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D33448-5B30-4339-BE87-98AB8DBC769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5ACC0-0F2F-4FF7-A74B-A723B5006453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{943C89F2-2189-41CC-BB7B-1A98C8DC0940}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>Spiel:</t>
   </si>
@@ -389,12 +389,94 @@
   <si>
     <t>noch zu bearbeiten -&gt; Navmesh, bzw Box-Collider</t>
   </si>
+  <si>
+    <t>20.12.2021</t>
+  </si>
+  <si>
+    <t>Modell Rigging -&gt; Turtle gerigged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poses ToDo: </t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Turrets</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Turn (Anvisieren)</t>
+  </si>
+  <si>
+    <t>Natural Objects</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>Modelling ToDo:</t>
+  </si>
+  <si>
+    <t>Mech Turrets</t>
+  </si>
+  <si>
+    <t>Alien Turrets</t>
+  </si>
+  <si>
+    <t>Degenerate Geometry löschen: Edit/A/Mesh/Merge/byDisctance</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Turmauswahl-UI</t>
+  </si>
+  <si>
+    <t>03.01.2022</t>
+  </si>
+  <si>
+    <t>21.12.2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quick-Effekt: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cell fracture</t>
+    </r>
+  </si>
+  <si>
+    <t>vorher</t>
+  </si>
+  <si>
+    <t>nachher</t>
+  </si>
+  <si>
+    <t>Zwischenschritt: Bevel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +513,23 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -513,6 +612,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -656,6 +757,138 @@
         <a:xfrm>
           <a:off x="762000" y="21717000"/>
           <a:ext cx="7066667" cy="6314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>746081</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369C6D77-D75B-4C25-9363-44E64B6064D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="35052001"/>
+          <a:ext cx="4556081" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>72038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6F764C-30FD-46CC-8FA3-2EE79D579525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314701" y="39624000"/>
+          <a:ext cx="2362200" cy="1786538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>75312</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>85137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03255755-9894-4C37-9DD4-8ADA152EB18F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="39633525"/>
+          <a:ext cx="2351787" cy="1790112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1125,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB7469-0A03-4149-B018-64A969D158B3}">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="J227" sqref="J227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>87</v>
       </c>
@@ -1474,12 +1707,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
         <v>90</v>
       </c>
@@ -1487,7 +1720,7 @@
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>86</v>
       </c>
@@ -1495,8 +1728,151 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>91</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C165" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C169" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C171" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C172" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C175" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C176" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C177" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C179" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>109</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E208" s="3"/>
+      <c r="G208" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>108</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>22</v>
       </c>
     </row>

--- a/FlimonTD.xlsx
+++ b/FlimonTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49151\FlimonUnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5ACC0-0F2F-4FF7-A74B-A723B5006453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79DED4-49D9-4F36-AD14-125B8B0D7D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{943C89F2-2189-41CC-BB7B-1A98C8DC0940}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
   <si>
     <t>Spiel:</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>Zwischenschritt: Bevel</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Zombie Gegner (kommt aus Wasser?)</t>
+  </si>
+  <si>
+    <t>06.01.2022</t>
   </si>
 </sst>
 </file>
@@ -598,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -614,6 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1358,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB7469-0A03-4149-B018-64A969D158B3}">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="J227" sqref="J227"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1873,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>108</v>
       </c>
@@ -1871,8 +1881,111 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C242" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C243" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D243" s="3"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>116</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>22</v>
       </c>
     </row>

--- a/FlimonTD.xlsx
+++ b/FlimonTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49151\FlimonUnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79DED4-49D9-4F36-AD14-125B8B0D7D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C5BDB-88EC-487D-9109-CB436C04C307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{943C89F2-2189-41CC-BB7B-1A98C8DC0940}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>Spiel:</t>
   </si>
@@ -479,6 +479,90 @@
   </si>
   <si>
     <t>06.01.2022</t>
+  </si>
+  <si>
+    <t>Target -&gt; Schatztruhe</t>
+  </si>
+  <si>
+    <t>Was macht ein TD-Spiel spaßig:</t>
+  </si>
+  <si>
+    <t>Du wirst stärker</t>
+  </si>
+  <si>
+    <t>Türme mit:</t>
+  </si>
+  <si>
+    <t>Splashdmg</t>
+  </si>
+  <si>
+    <t>Knockback</t>
+  </si>
+  <si>
+    <t>Piraten sind böse</t>
+  </si>
+  <si>
+    <t>Fraktionen:</t>
+  </si>
+  <si>
+    <t>Natur</t>
+  </si>
+  <si>
+    <t>Mech</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>Du bekommst ein Problem und kannst es auf mehrere, persönliche Wege lösen</t>
+  </si>
+  <si>
+    <t>Psykräfte, Barrieren</t>
+  </si>
+  <si>
+    <t>Feuerrate</t>
+  </si>
+  <si>
+    <t>WegBlocker/Barrieren</t>
+  </si>
+  <si>
+    <t>Hakenhand</t>
+  </si>
+  <si>
+    <t>Holzfuß</t>
+  </si>
+  <si>
+    <t>Kanone</t>
+  </si>
+  <si>
+    <t>Pistole</t>
+  </si>
+  <si>
+    <t>Säbel</t>
+  </si>
+  <si>
+    <t>Augenklappe</t>
+  </si>
+  <si>
+    <t>Pluverfass</t>
+  </si>
+  <si>
+    <t>Fernrohr</t>
+  </si>
+  <si>
+    <t>Piratenhut</t>
+  </si>
+  <si>
+    <t>Skelett-Pirat</t>
+  </si>
+  <si>
+    <t>Kopftuch</t>
+  </si>
+  <si>
+    <t>Papagei</t>
+  </si>
+  <si>
+    <t>07.01.2022</t>
   </si>
 </sst>
 </file>
@@ -653,7 +737,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>101428</xdr:rowOff>
     </xdr:to>
@@ -696,7 +780,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>52235</xdr:rowOff>
     </xdr:to>
@@ -740,7 +824,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>208667</xdr:colOff>
+      <xdr:colOff>132467</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>27786</xdr:rowOff>
     </xdr:to>
@@ -784,7 +868,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>746081</xdr:colOff>
+      <xdr:colOff>669881</xdr:colOff>
       <xdr:row>206</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
@@ -871,8 +955,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>75312</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>837312</xdr:colOff>
       <xdr:row>217</xdr:row>
       <xdr:rowOff>85137</xdr:rowOff>
     </xdr:to>
@@ -1368,13 +1452,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB7469-0A03-4149-B018-64A969D158B3}">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="J277" sqref="J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1960,23 +2047,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C242" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C243" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D243" s="3"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>116</v>
       </c>
@@ -1984,8 +2071,132 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C251" s="3"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C253" s="6"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>142</v>
+      </c>
+      <c r="D254" t="s">
+        <v>137</v>
+      </c>
+      <c r="E254" t="s">
+        <v>133</v>
+      </c>
+      <c r="F254" t="s">
+        <v>139</v>
+      </c>
+      <c r="G254" t="s">
+        <v>143</v>
+      </c>
+      <c r="H254" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>132</v>
+      </c>
+      <c r="D255" t="s">
+        <v>136</v>
+      </c>
+      <c r="E255" t="s">
+        <v>135</v>
+      </c>
+      <c r="F255" t="s">
+        <v>134</v>
+      </c>
+      <c r="G255" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>124</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C262" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D262" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C263" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D263" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>120</v>
+      </c>
+      <c r="C269" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>144</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>22</v>
       </c>
     </row>

--- a/FlimonTD.xlsx
+++ b/FlimonTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49151\FlimonUnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C5BDB-88EC-487D-9109-CB436C04C307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C13625-ED52-4630-AA59-DF744EE80E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{943C89F2-2189-41CC-BB7B-1A98C8DC0940}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{943C89F2-2189-41CC-BB7B-1A98C8DC0940}"/>
   </bookViews>
   <sheets>
     <sheet name="MainPage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
   <si>
     <t>Spiel:</t>
   </si>
@@ -469,9 +469,6 @@
     <t>nachher</t>
   </si>
   <si>
-    <t>Zwischenschritt: Bevel</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -563,6 +560,45 @@
   </si>
   <si>
     <t>07.01.2022</t>
+  </si>
+  <si>
+    <t>Priaten_Base Model fertiggestellt</t>
+  </si>
+  <si>
+    <t>Kopftuch-Pirat Variante modelliert, gerigged und animiert</t>
+  </si>
+  <si>
+    <t>Palmtree_Large gerigged und animiert</t>
+  </si>
+  <si>
+    <t>10.01.2022</t>
+  </si>
+  <si>
+    <t>08.01.2022</t>
+  </si>
+  <si>
+    <t>09.01.2022</t>
+  </si>
+  <si>
+    <t>Pirate_Ship animiert</t>
+  </si>
+  <si>
+    <t>Pirate_Ship Modell angefangen</t>
+  </si>
+  <si>
+    <t>Pirate_Ship Modell fertiggestellt</t>
+  </si>
+  <si>
+    <t>Schatztruhe</t>
+  </si>
+  <si>
+    <t>Türme</t>
+  </si>
+  <si>
+    <t>Design-Liste Türme&amp;Upgrades</t>
+  </si>
+  <si>
+    <t>Zwischenschritt: Bevel (Formstabilität)</t>
   </si>
 </sst>
 </file>
@@ -678,7 +714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -686,12 +722,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -708,6 +781,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -727,6 +803,957 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6651EDE6-BFE1-4360-B629-6D09C011E3AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85724" y="7353300"/>
+          <a:ext cx="4638675" cy="6143626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>W</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>erte </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pgrades sind eh klar, hier nur die besonderen </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pgrades) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mech</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mech turm 1: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tandard </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>urm </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mech turm 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>u</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pgrade : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>oppel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>barrel </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mech turm 2: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aketenwerfer </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mech turm 2 upgrade: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mech turm 3: ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mech turm 3 upgrade: kann die position wechseln </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gaia</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaia turm 1: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>childkröte, schießt wasserstrahl, slowt </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaia turm 1 upgrade: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaia turm 2: irgendwas mit DoT (gift?) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaia turm 2 upgrade: ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaia turm 3: ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaia turm 3 upgrade: ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alien</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aliens turm 1: schwebendes baby alien, macht effekt im bereich </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aliens turm 1 upgrade: ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aliens turm 2: ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aliens turm 2 upgrade:? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aliens turm 3: ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aliens turm 3 upgrade: ? </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Türme" die auf dem Weg platziert werden: Stachelfalle, die hin und wieder Stacheln aus dem Boden fährt Eine Art Wegverengung zur </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>assenkontrolle </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -906,15 +1933,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:colOff>695326</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>72038</xdr:rowOff>
+      <xdr:rowOff>81563</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -937,7 +1964,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314701" y="39624000"/>
+          <a:off x="3819526" y="39633525"/>
           <a:ext cx="2362200" cy="1786538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1291,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E2D4FF-88E9-4C6F-B288-CD607423519C}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,18 +2471,26 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB7469-0A03-4149-B018-64A969D158B3}">
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="J277" sqref="J277"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,15 +2983,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="E208" s="3"/>
-      <c r="G208" s="5" t="s">
+      <c r="F208" s="3"/>
+      <c r="H208" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1983,7 +3019,7 @@
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C225" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
@@ -2060,12 +3096,12 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>26</v>
@@ -2078,118 +3114,118 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B251" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B253" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C253" s="6"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C254" t="s">
+      <c r="C254" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D254" t="s">
+        <v>136</v>
+      </c>
+      <c r="E254" t="s">
+        <v>132</v>
+      </c>
+      <c r="F254" t="s">
+        <v>138</v>
+      </c>
+      <c r="G254" t="s">
         <v>142</v>
       </c>
-      <c r="D254" t="s">
-        <v>137</v>
-      </c>
-      <c r="E254" t="s">
-        <v>133</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="H254" t="s">
         <v>139</v>
-      </c>
-      <c r="G254" t="s">
-        <v>143</v>
-      </c>
-      <c r="H254" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D255" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E255" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F255" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G255" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
+        <v>123</v>
+      </c>
+      <c r="C261" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C262" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D262" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C263" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D263" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
+        <v>119</v>
+      </c>
+      <c r="C269" t="s">
         <v>120</v>
-      </c>
-      <c r="C269" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>26</v>
@@ -2198,6 +3234,74 @@
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>22</v>
+      </c>
+      <c r="B275" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>148</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>149</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>147</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>22</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +3318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50785A12-7247-4E40-B679-504FE8FDC47B}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="B28:E39"/>
     </sheetView>
   </sheetViews>

--- a/FlimonTD.xlsx
+++ b/FlimonTD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49151\FlimonUnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C13625-ED52-4630-AA59-DF744EE80E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7A2694-7FD6-40EB-ACE1-05BC02BBB2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{943C89F2-2189-41CC-BB7B-1A98C8DC0940}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
   <si>
     <t>Spiel:</t>
   </si>
@@ -599,6 +599,42 @@
   </si>
   <si>
     <t>Zwischenschritt: Bevel (Formstabilität)</t>
+  </si>
+  <si>
+    <t>20.01.2022</t>
+  </si>
+  <si>
+    <t>24.01.2022</t>
+  </si>
+  <si>
+    <t>TrelloBoard erstellt</t>
+  </si>
+  <si>
+    <t>28.01.2022</t>
+  </si>
+  <si>
+    <t>Ctrl+J: -&gt; Join Parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; modifier:</t>
+  </si>
+  <si>
+    <t>subdivision surface</t>
+  </si>
+  <si>
+    <t>decimate</t>
+  </si>
+  <si>
+    <t>26.01.2022</t>
+  </si>
+  <si>
+    <t>Update zum Cell-Fracture Eintrag (21.12.2021)</t>
+  </si>
+  <si>
+    <t>02.02.2022</t>
+  </si>
+  <si>
+    <t>31.01.2022</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1039,7 @@
           <a:r>
             <a:rPr lang="en-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1015,7 +1051,7 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1027,7 +1063,7 @@
           <a:r>
             <a:rPr lang="en-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1039,7 +1075,7 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1098,7 +1134,7 @@
           <a:r>
             <a:rPr lang="en-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1110,7 +1146,7 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1122,7 +1158,7 @@
           <a:r>
             <a:rPr lang="en-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1134,7 +1170,7 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1180,7 +1216,7 @@
           <a:r>
             <a:rPr lang="en-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1192,14 +1228,26 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>aketenwerfer </a:t>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>akete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n-Silo</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-DE" sz="1100" b="0" i="0">
@@ -1327,12 +1375,24 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>gaia turm 1: </a:t>
+            <a:t>gaia turm 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1344,14 +1404,26 @@
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>childkröte, schießt wasserstrahl, slowt </a:t>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>childkröte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, schießt wasserstrahl, slowt </a:t>
           </a:r>
           <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -1374,7 +1446,79 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>gaia turm 1 upgrade: </a:t>
+            <a:t>gaia turm 1 upgrade</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Schnappschildkröte</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaia turm 2: irgendwas mit DoT (gift?) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gaia turm 2 upgrade: ? </a:t>
           </a:r>
           <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -1408,7 +1552,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>gaia turm 2: irgendwas mit DoT (gift?) </a:t>
+            <a:t>gaia turm 3: ? </a:t>
           </a:r>
           <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -1431,7 +1575,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>gaia turm 2 upgrade: ? </a:t>
+            <a:t>gaia turm 3 upgrade: ? </a:t>
           </a:r>
           <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -1456,26 +1600,17 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>gaia turm 3: ? </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alien</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -1488,55 +1623,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>gaia turm 3 upgrade: ? </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-DE" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alien</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>aliens turm 1: </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="0">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>aliens turm 1: schwebendes baby alien, macht effekt im bereich </a:t>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>schwebendes baby alien</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, macht effekt im bereich </a:t>
           </a:r>
           <a:endParaRPr lang="en-DE" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -2320,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E2D4FF-88E9-4C6F-B288-CD607423519C}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB7469-0A03-4149-B018-64A969D158B3}">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="G295" sqref="G295"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,312 +3107,416 @@
         <v>112</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="3"/>
+      <c r="C221" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>108</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B224" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="13" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C225" s="15" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C226" s="6" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C227" s="6" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C228" s="3" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="1" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C231" s="3" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C232" s="3" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C234" s="1" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C235" s="3" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="13" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C237" s="3"/>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C238" s="3" t="s">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C239" s="3" t="s">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C241" s="3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C240" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C242" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C244" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C243" s="3" t="s">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C245" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D243" s="3"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
+      <c r="D245" s="3"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>115</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B251" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B251" s="3" t="s">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B253" s="6" t="s">
+      <c r="C253" s="3"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B255" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C253" s="6"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C254" s="6" t="s">
+      <c r="C255" s="6"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C256" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D256" t="s">
         <v>136</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E256" t="s">
         <v>132</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F256" t="s">
         <v>138</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G256" t="s">
         <v>142</v>
       </c>
-      <c r="H254" t="s">
+      <c r="H256" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C255" t="s">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
         <v>131</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D257" t="s">
         <v>135</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E257" t="s">
         <v>134</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F257" t="s">
         <v>133</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G257" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C256" t="s">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
         <v>123</v>
       </c>
-      <c r="C261" s="10" t="s">
+      <c r="C263" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C262" s="10" t="s">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C264" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D264" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C263" s="3" t="s">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C265" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D265" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C266" t="s">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C267" t="s">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
         <v>119</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C271" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C270" t="s">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C271" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>143</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B276" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>22</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B277" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>148</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B283" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>149</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B288" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>147</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B293" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>22</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B294" t="s">
         <v>7</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C294" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C293" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>157</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>158</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>22</v>
+      </c>
+      <c r="B303" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>165</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>160</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>168</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>167</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
